--- a/заказы/статистика филиалы/2023/11,23/30,11,23 ЗПФ/дв 30,11,23 млрсч зпф.xlsx
+++ b/заказы/статистика филиалы/2023/11,23/30,11,23 ЗПФ/дв 30,11,23 млрсч зпф.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Uaer4\Desktop\30,11,23 филиалы ЗПФ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\ПОКОМ\pokom_data\заказы\статистика филиалы\2023\11,23\30,11,23 ЗПФ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38195DB7-D659-40D9-8317-FBB63D68FC28}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03B84D2E-A5F3-44AB-8951-4D30F864530B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TDSheet!$A$3:$Z$36</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="181029" refMode="R1C1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -237,6 +237,8 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <sz val="8"/>
@@ -3377,7 +3379,7 @@
   <dimension ref="A1:Z36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AA15" sqref="AA15"/>
+      <selection activeCell="AA9" sqref="AA9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="11.45" customHeight="1" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
@@ -3829,7 +3831,7 @@
         <v>3.7</v>
       </c>
       <c r="Y8" s="23">
-        <f t="shared" ref="Y7:Y34" si="9">N8/X8</f>
+        <f t="shared" ref="Y8:Y33" si="9">N8/X8</f>
         <v>0</v>
       </c>
       <c r="Z8" s="7">
